--- a/eos/soft.xlsx
+++ b/eos/soft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/eos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C917F58A-4F31-49E3-8CD3-6A8F6DD7FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{150DAB9F-6A38-4782-A8D3-5D00F5EDCBD4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C917F58A-4F31-49E3-8CD3-6A8F6DD7FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6DD8BEC-C9C3-4962-BEC6-9A51A31A5595}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C69C6105-B384-401E-B51A-D08A7B12DC80}"/>
   </bookViews>
@@ -94,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59A2D5-D8A1-4851-891C-038A17FBEDE7}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +686,7 @@
         <v>4.2117804900000004E-9</v>
       </c>
       <c r="B33">
-        <v>3.1673521650000003E-9</v>
+        <v>3.1673521650000002E-12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
